--- a/Magic Cube formulas.xlsx
+++ b/Magic Cube formulas.xlsx
@@ -168,12 +168,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -197,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -220,6 +226,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -247,8 +256,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1259512" cy="354071"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -284,6 +293,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -305,7 +315,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -317,7 +327,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -331,7 +341,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -344,7 +354,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -372,7 +382,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -405,7 +415,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -779,7 +789,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1077,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Magic Cube formulas.xlsx
+++ b/Magic Cube formulas.xlsx
@@ -177,7 +177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +520,225 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1758623" cy="316882"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3867150" y="3176587"/>
+              <a:ext cx="1758623" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>𝑠𝑖𝑧𝑒</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>+2</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑖𝑚</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>−</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑠𝑖𝑧𝑒</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑖𝑚</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>))</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3867150" y="3176587"/>
+              <a:ext cx="1758623" cy="316882"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>1/2((𝑠𝑖𝑧𝑒+2)^𝑑𝑖𝑚−〖𝑠𝑖𝑧𝑒〗^𝑑𝑖𝑚))</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -789,7 +1008,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
